--- a/Electricidad/rd/rd.xlsx
+++ b/Electricidad/rd/rd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge Guerra\Desktop\Git-Hub\ProyectoReg\Electricidad\rd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Git-Hub\ProyectoReg\Electricidad\rd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179314DE-9484-4798-A41A-FA417AC7B7B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FE433B-62F2-4B4D-B7EA-7459299D176B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BCE00364-DC20-4D94-ABEC-493BF6B06787}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCE00364-DC20-4D94-ABEC-493BF6B06787}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="6" r:id="rId1"/>
@@ -9960,7 +9960,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9980,6 +9980,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -10032,10 +10040,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -10054,8 +10063,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10370,16 +10383,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7F4247-D011-4A4C-A109-054C79ED33DE}">
   <dimension ref="A1:F1097"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A990" workbookViewId="0">
+      <selection activeCell="E1003" sqref="E1003"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.81640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="35.36328125" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10399,7 +10412,7 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2524</v>
       </c>
@@ -10419,7 +10432,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2525</v>
       </c>
@@ -10439,7 +10452,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2526</v>
       </c>
@@ -10459,7 +10472,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2527</v>
       </c>
@@ -10479,7 +10492,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2528</v>
       </c>
@@ -10499,7 +10512,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2529</v>
       </c>
@@ -10519,7 +10532,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2530</v>
       </c>
@@ -10539,7 +10552,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2531</v>
       </c>
@@ -10559,7 +10572,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2532</v>
       </c>
@@ -10579,7 +10592,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2533</v>
       </c>
@@ -10599,7 +10612,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2534</v>
       </c>
@@ -10619,7 +10632,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2535</v>
       </c>
@@ -10639,7 +10652,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2536</v>
       </c>
@@ -10659,7 +10672,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2537</v>
       </c>
@@ -10679,7 +10692,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2538</v>
       </c>
@@ -10699,7 +10712,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2539</v>
       </c>
@@ -10719,7 +10732,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2540</v>
       </c>
@@ -10739,7 +10752,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2541</v>
       </c>
@@ -10759,7 +10772,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2542</v>
       </c>
@@ -10779,7 +10792,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2543</v>
       </c>
@@ -10799,7 +10812,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2544</v>
       </c>
@@ -10819,7 +10832,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2545</v>
       </c>
@@ -10839,7 +10852,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>2546</v>
       </c>
@@ -10859,7 +10872,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>2547</v>
       </c>
@@ -10879,7 +10892,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>2548</v>
       </c>
@@ -10899,7 +10912,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>2549</v>
       </c>
@@ -10919,7 +10932,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>2550</v>
       </c>
@@ -10939,7 +10952,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>2551</v>
       </c>
@@ -10959,7 +10972,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2552</v>
       </c>
@@ -10979,7 +10992,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2553</v>
       </c>
@@ -10999,7 +11012,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>2554</v>
       </c>
@@ -11019,7 +11032,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>2555</v>
       </c>
@@ -11039,7 +11052,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>2556</v>
       </c>
@@ -11059,7 +11072,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>2557</v>
       </c>
@@ -11079,7 +11092,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>2558</v>
       </c>
@@ -11099,7 +11112,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>2559</v>
       </c>
@@ -11119,7 +11132,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2560</v>
       </c>
@@ -11139,7 +11152,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>2561</v>
       </c>
@@ -11159,7 +11172,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2562</v>
       </c>
@@ -11179,7 +11192,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>2563</v>
       </c>
@@ -11199,7 +11212,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>2564</v>
       </c>
@@ -11219,7 +11232,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>2565</v>
       </c>
@@ -11239,7 +11252,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>2566</v>
       </c>
@@ -11259,7 +11272,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>2567</v>
       </c>
@@ -11279,7 +11292,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>2568</v>
       </c>
@@ -11299,7 +11312,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>2569</v>
       </c>
@@ -11319,7 +11332,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>2570</v>
       </c>
@@ -11339,7 +11352,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>2571</v>
       </c>
@@ -11359,7 +11372,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>2572</v>
       </c>
@@ -11379,7 +11392,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>2573</v>
       </c>
@@ -11399,7 +11412,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>2574</v>
       </c>
@@ -11419,7 +11432,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>2575</v>
       </c>
@@ -11439,7 +11452,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>2576</v>
       </c>
@@ -11459,7 +11472,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>2577</v>
       </c>
@@ -11479,7 +11492,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>2578</v>
       </c>
@@ -11499,7 +11512,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>2579</v>
       </c>
@@ -11519,7 +11532,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>2580</v>
       </c>
@@ -11539,7 +11552,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>2581</v>
       </c>
@@ -11559,7 +11572,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>2582</v>
       </c>
@@ -11579,7 +11592,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>2583</v>
       </c>
@@ -11599,7 +11612,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>2584</v>
       </c>
@@ -11619,7 +11632,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>2585</v>
       </c>
@@ -11639,7 +11652,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>2586</v>
       </c>
@@ -11659,7 +11672,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>2587</v>
       </c>
@@ -11679,7 +11692,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>2588</v>
       </c>
@@ -11699,7 +11712,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>2589</v>
       </c>
@@ -11719,7 +11732,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>2590</v>
       </c>
@@ -11739,7 +11752,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>2591</v>
       </c>
@@ -11759,7 +11772,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>2592</v>
       </c>
@@ -11779,7 +11792,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>2593</v>
       </c>
@@ -11799,7 +11812,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>2594</v>
       </c>
@@ -11819,7 +11832,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>2595</v>
       </c>
@@ -11839,7 +11852,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>2596</v>
       </c>
@@ -11859,7 +11872,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>2597</v>
       </c>
@@ -11879,7 +11892,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>2598</v>
       </c>
@@ -11899,7 +11912,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>2599</v>
       </c>
@@ -11919,7 +11932,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>2600</v>
       </c>
@@ -11939,7 +11952,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>2601</v>
       </c>
@@ -11959,7 +11972,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>2602</v>
       </c>
@@ -11979,7 +11992,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>2603</v>
       </c>
@@ -11999,7 +12012,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>2604</v>
       </c>
@@ -12019,7 +12032,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>2605</v>
       </c>
@@ -12039,7 +12052,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>2606</v>
       </c>
@@ -12059,7 +12072,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>2607</v>
       </c>
@@ -12079,7 +12092,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>2608</v>
       </c>
@@ -12099,7 +12112,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>2609</v>
       </c>
@@ -12119,7 +12132,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>2610</v>
       </c>
@@ -12139,7 +12152,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>2611</v>
       </c>
@@ -12159,7 +12172,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>2612</v>
       </c>
@@ -12179,7 +12192,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>2613</v>
       </c>
@@ -12199,7 +12212,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>2614</v>
       </c>
@@ -12219,7 +12232,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>2615</v>
       </c>
@@ -12239,7 +12252,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>2616</v>
       </c>
@@ -12259,7 +12272,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>2617</v>
       </c>
@@ -12279,7 +12292,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>2618</v>
       </c>
@@ -12299,7 +12312,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>2619</v>
       </c>
@@ -12319,7 +12332,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>2620</v>
       </c>
@@ -12339,7 +12352,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>2621</v>
       </c>
@@ -12359,7 +12372,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>2622</v>
       </c>
@@ -12379,7 +12392,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>2623</v>
       </c>
@@ -12399,7 +12412,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>2624</v>
       </c>
@@ -12419,7 +12432,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>2625</v>
       </c>
@@ -12439,7 +12452,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>2626</v>
       </c>
@@ -12459,7 +12472,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>2627</v>
       </c>
@@ -12479,7 +12492,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>2628</v>
       </c>
@@ -12499,7 +12512,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>2629</v>
       </c>
@@ -12519,7 +12532,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>2630</v>
       </c>
@@ -12539,7 +12552,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>2631</v>
       </c>
@@ -12559,7 +12572,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>2632</v>
       </c>
@@ -12579,7 +12592,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>2633</v>
       </c>
@@ -12599,7 +12612,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>2634</v>
       </c>
@@ -12619,7 +12632,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>2635</v>
       </c>
@@ -12639,7 +12652,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>2636</v>
       </c>
@@ -12659,7 +12672,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>2637</v>
       </c>
@@ -12679,7 +12692,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>2638</v>
       </c>
@@ -12699,7 +12712,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>2639</v>
       </c>
@@ -12719,7 +12732,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>2640</v>
       </c>
@@ -12739,7 +12752,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>2641</v>
       </c>
@@ -12759,7 +12772,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>2642</v>
       </c>
@@ -12779,7 +12792,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>2643</v>
       </c>
@@ -12799,7 +12812,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>2644</v>
       </c>
@@ -12819,7 +12832,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>2645</v>
       </c>
@@ -12839,7 +12852,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>2646</v>
       </c>
@@ -12859,7 +12872,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>2647</v>
       </c>
@@ -12879,7 +12892,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>2648</v>
       </c>
@@ -12899,7 +12912,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>2649</v>
       </c>
@@ -12919,7 +12932,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>2650</v>
       </c>
@@ -12939,7 +12952,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>2651</v>
       </c>
@@ -12959,7 +12972,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>2652</v>
       </c>
@@ -12979,7 +12992,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>2653</v>
       </c>
@@ -12999,7 +13012,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>2654</v>
       </c>
@@ -13019,7 +13032,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>2655</v>
       </c>
@@ -13039,7 +13052,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>2656</v>
       </c>
@@ -13059,7 +13072,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>2657</v>
       </c>
@@ -13079,7 +13092,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>2658</v>
       </c>
@@ -13099,7 +13112,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>2659</v>
       </c>
@@ -13119,7 +13132,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>2660</v>
       </c>
@@ -13139,7 +13152,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>2661</v>
       </c>
@@ -13159,7 +13172,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>2662</v>
       </c>
@@ -13179,7 +13192,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>2663</v>
       </c>
@@ -13199,7 +13212,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>2664</v>
       </c>
@@ -13219,7 +13232,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>2665</v>
       </c>
@@ -13239,7 +13252,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>2666</v>
       </c>
@@ -13259,7 +13272,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>2667</v>
       </c>
@@ -13279,7 +13292,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>2668</v>
       </c>
@@ -13299,7 +13312,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>2669</v>
       </c>
@@ -13319,7 +13332,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>2670</v>
       </c>
@@ -13339,7 +13352,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>2671</v>
       </c>
@@ -13359,7 +13372,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>2672</v>
       </c>
@@ -13379,7 +13392,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>2673</v>
       </c>
@@ -13399,7 +13412,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>2674</v>
       </c>
@@ -13419,7 +13432,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>2675</v>
       </c>
@@ -13439,7 +13452,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>2676</v>
       </c>
@@ -13459,7 +13472,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>2677</v>
       </c>
@@ -13479,7 +13492,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>2678</v>
       </c>
@@ -13499,7 +13512,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>2679</v>
       </c>
@@ -13519,7 +13532,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>2680</v>
       </c>
@@ -13539,7 +13552,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>2681</v>
       </c>
@@ -13559,7 +13572,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>2682</v>
       </c>
@@ -13579,7 +13592,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>2683</v>
       </c>
@@ -13599,7 +13612,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>2684</v>
       </c>
@@ -13619,7 +13632,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>2685</v>
       </c>
@@ -13639,7 +13652,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>2686</v>
       </c>
@@ -13659,7 +13672,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>2687</v>
       </c>
@@ -13679,7 +13692,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>2688</v>
       </c>
@@ -13699,7 +13712,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>2689</v>
       </c>
@@ -13719,7 +13732,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>2690</v>
       </c>
@@ -13739,7 +13752,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>2691</v>
       </c>
@@ -13759,7 +13772,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>2692</v>
       </c>
@@ -13779,7 +13792,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>2693</v>
       </c>
@@ -13799,7 +13812,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>2694</v>
       </c>
@@ -13819,7 +13832,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>2695</v>
       </c>
@@ -13839,7 +13852,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>2696</v>
       </c>
@@ -13859,7 +13872,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>2697</v>
       </c>
@@ -13879,7 +13892,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>2698</v>
       </c>
@@ -13899,7 +13912,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>2699</v>
       </c>
@@ -13919,7 +13932,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>2700</v>
       </c>
@@ -13939,7 +13952,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>2701</v>
       </c>
@@ -13959,7 +13972,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>2702</v>
       </c>
@@ -13979,7 +13992,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>2703</v>
       </c>
@@ -13999,7 +14012,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>2704</v>
       </c>
@@ -14019,7 +14032,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>2705</v>
       </c>
@@ -14039,7 +14052,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>2706</v>
       </c>
@@ -14059,7 +14072,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>2707</v>
       </c>
@@ -14079,7 +14092,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>2708</v>
       </c>
@@ -14099,7 +14112,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>2709</v>
       </c>
@@ -14119,7 +14132,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>2710</v>
       </c>
@@ -14139,7 +14152,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>2711</v>
       </c>
@@ -14159,7 +14172,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>2712</v>
       </c>
@@ -14179,7 +14192,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>2713</v>
       </c>
@@ -14199,7 +14212,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>2714</v>
       </c>
@@ -14219,7 +14232,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>2715</v>
       </c>
@@ -14239,7 +14252,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>2716</v>
       </c>
@@ -14259,7 +14272,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>2717</v>
       </c>
@@ -14279,7 +14292,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>2718</v>
       </c>
@@ -14299,7 +14312,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>2719</v>
       </c>
@@ -14319,7 +14332,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>2720</v>
       </c>
@@ -14339,7 +14352,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>2721</v>
       </c>
@@ -14359,7 +14372,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>2722</v>
       </c>
@@ -14379,7 +14392,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>2723</v>
       </c>
@@ -14399,7 +14412,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>2724</v>
       </c>
@@ -14419,7 +14432,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>2725</v>
       </c>
@@ -14439,7 +14452,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>2726</v>
       </c>
@@ -14459,7 +14472,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>2727</v>
       </c>
@@ -14479,7 +14492,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>2728</v>
       </c>
@@ -14499,7 +14512,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>2729</v>
       </c>
@@ -14519,7 +14532,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>2730</v>
       </c>
@@ -14539,7 +14552,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>2731</v>
       </c>
@@ -14559,7 +14572,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>2732</v>
       </c>
@@ -14579,7 +14592,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>2733</v>
       </c>
@@ -14599,7 +14612,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>2734</v>
       </c>
@@ -14619,7 +14632,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>2735</v>
       </c>
@@ -14639,7 +14652,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>2736</v>
       </c>
@@ -14659,7 +14672,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>2737</v>
       </c>
@@ -14679,7 +14692,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>2738</v>
       </c>
@@ -14699,7 +14712,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>2739</v>
       </c>
@@ -14719,7 +14732,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>2740</v>
       </c>
@@ -14739,7 +14752,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>2741</v>
       </c>
@@ -14759,7 +14772,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>2742</v>
       </c>
@@ -14779,7 +14792,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>2743</v>
       </c>
@@ -14799,7 +14812,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>2744</v>
       </c>
@@ -14819,7 +14832,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>2745</v>
       </c>
@@ -14839,7 +14852,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>2746</v>
       </c>
@@ -14859,7 +14872,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>2747</v>
       </c>
@@ -14879,7 +14892,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>2748</v>
       </c>
@@ -14899,7 +14912,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>2749</v>
       </c>
@@ -14919,7 +14932,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>2750</v>
       </c>
@@ -14939,7 +14952,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>2751</v>
       </c>
@@ -14959,7 +14972,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>2752</v>
       </c>
@@ -14979,7 +14992,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>2753</v>
       </c>
@@ -14999,7 +15012,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>2754</v>
       </c>
@@ -15019,7 +15032,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>2755</v>
       </c>
@@ -15039,7 +15052,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>2756</v>
       </c>
@@ -15059,7 +15072,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>2757</v>
       </c>
@@ -15079,7 +15092,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>2758</v>
       </c>
@@ -15099,7 +15112,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>2759</v>
       </c>
@@ -15119,7 +15132,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>2760</v>
       </c>
@@ -15139,7 +15152,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>2761</v>
       </c>
@@ -15159,7 +15172,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>2762</v>
       </c>
@@ -15179,7 +15192,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>2763</v>
       </c>
@@ -15199,7 +15212,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>2764</v>
       </c>
@@ -15219,7 +15232,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>2765</v>
       </c>
@@ -15239,7 +15252,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>2766</v>
       </c>
@@ -15259,7 +15272,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>2767</v>
       </c>
@@ -15279,7 +15292,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>2768</v>
       </c>
@@ -15299,7 +15312,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>2769</v>
       </c>
@@ -15319,7 +15332,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>2770</v>
       </c>
@@ -15339,7 +15352,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>2771</v>
       </c>
@@ -15359,7 +15372,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>2772</v>
       </c>
@@ -15379,7 +15392,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>2773</v>
       </c>
@@ -15399,7 +15412,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>2774</v>
       </c>
@@ -15419,7 +15432,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>2775</v>
       </c>
@@ -15439,7 +15452,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>2776</v>
       </c>
@@ -15459,7 +15472,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>2777</v>
       </c>
@@ -15479,7 +15492,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>2778</v>
       </c>
@@ -15499,7 +15512,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>2779</v>
       </c>
@@ -15519,7 +15532,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>2780</v>
       </c>
@@ -15539,7 +15552,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>2781</v>
       </c>
@@ -15559,7 +15572,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>2782</v>
       </c>
@@ -15579,7 +15592,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>2783</v>
       </c>
@@ -15599,7 +15612,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>2784</v>
       </c>
@@ -15619,7 +15632,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>2785</v>
       </c>
@@ -15639,7 +15652,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>2786</v>
       </c>
@@ -15659,7 +15672,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>2787</v>
       </c>
@@ -15679,7 +15692,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>2788</v>
       </c>
@@ -15699,7 +15712,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>2789</v>
       </c>
@@ -15719,7 +15732,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>2790</v>
       </c>
@@ -15739,7 +15752,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>2791</v>
       </c>
@@ -15759,7 +15772,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>2792</v>
       </c>
@@ -15779,7 +15792,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>2793</v>
       </c>
@@ -15799,7 +15812,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>2794</v>
       </c>
@@ -15819,7 +15832,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>2795</v>
       </c>
@@ -15839,7 +15852,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>2796</v>
       </c>
@@ -15859,7 +15872,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>2797</v>
       </c>
@@ -15879,7 +15892,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>2798</v>
       </c>
@@ -15899,7 +15912,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>2799</v>
       </c>
@@ -15919,7 +15932,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>2800</v>
       </c>
@@ -15939,7 +15952,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>2801</v>
       </c>
@@ -15959,7 +15972,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>2802</v>
       </c>
@@ -15979,7 +15992,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>2803</v>
       </c>
@@ -15999,7 +16012,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>2804</v>
       </c>
@@ -16019,7 +16032,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>2805</v>
       </c>
@@ -16039,7 +16052,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>2806</v>
       </c>
@@ -16059,7 +16072,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>2807</v>
       </c>
@@ -16079,7 +16092,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>2808</v>
       </c>
@@ -16099,7 +16112,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>2809</v>
       </c>
@@ -16119,7 +16132,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>2810</v>
       </c>
@@ -16139,7 +16152,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>2811</v>
       </c>
@@ -16159,7 +16172,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>2812</v>
       </c>
@@ -16179,7 +16192,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>2813</v>
       </c>
@@ -16199,7 +16212,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>2814</v>
       </c>
@@ -16219,7 +16232,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>2815</v>
       </c>
@@ -16239,7 +16252,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>2816</v>
       </c>
@@ -16259,7 +16272,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>2817</v>
       </c>
@@ -16279,7 +16292,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>2818</v>
       </c>
@@ -16299,7 +16312,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>2819</v>
       </c>
@@ -16319,7 +16332,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>2820</v>
       </c>
@@ -16339,7 +16352,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>2821</v>
       </c>
@@ -16359,7 +16372,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>2822</v>
       </c>
@@ -16379,7 +16392,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>2823</v>
       </c>
@@ -16399,7 +16412,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>2824</v>
       </c>
@@ -16419,7 +16432,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>2825</v>
       </c>
@@ -16439,7 +16452,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>2826</v>
       </c>
@@ -16459,7 +16472,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>2827</v>
       </c>
@@ -16479,7 +16492,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>2828</v>
       </c>
@@ -16499,7 +16512,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>2829</v>
       </c>
@@ -16519,7 +16532,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>2830</v>
       </c>
@@ -16539,7 +16552,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>2831</v>
       </c>
@@ -16559,7 +16572,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>2832</v>
       </c>
@@ -16579,7 +16592,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>2833</v>
       </c>
@@ -16599,7 +16612,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>2834</v>
       </c>
@@ -16619,7 +16632,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>2835</v>
       </c>
@@ -16639,7 +16652,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>2836</v>
       </c>
@@ -16659,7 +16672,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>2837</v>
       </c>
@@ -16679,7 +16692,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>2838</v>
       </c>
@@ -16699,7 +16712,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>2839</v>
       </c>
@@ -16719,7 +16732,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>2840</v>
       </c>
@@ -16739,7 +16752,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>2841</v>
       </c>
@@ -16759,7 +16772,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>2842</v>
       </c>
@@ -16779,7 +16792,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>2843</v>
       </c>
@@ -16799,7 +16812,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>2844</v>
       </c>
@@ -16819,7 +16832,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>2845</v>
       </c>
@@ -16839,7 +16852,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>2846</v>
       </c>
@@ -16859,7 +16872,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>2847</v>
       </c>
@@ -16879,7 +16892,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>2848</v>
       </c>
@@ -16899,7 +16912,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>2849</v>
       </c>
@@ -16919,7 +16932,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>2850</v>
       </c>
@@ -16939,7 +16952,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>2851</v>
       </c>
@@ -16959,7 +16972,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>2852</v>
       </c>
@@ -16979,7 +16992,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>2853</v>
       </c>
@@ -16999,7 +17012,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>2854</v>
       </c>
@@ -17019,7 +17032,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>2855</v>
       </c>
@@ -17039,7 +17052,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>2856</v>
       </c>
@@ -17059,7 +17072,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>2857</v>
       </c>
@@ -17079,7 +17092,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>2858</v>
       </c>
@@ -17099,7 +17112,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>2859</v>
       </c>
@@ -17119,7 +17132,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>2860</v>
       </c>
@@ -17139,7 +17152,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>2861</v>
       </c>
@@ -17159,7 +17172,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>2862</v>
       </c>
@@ -17179,7 +17192,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>2863</v>
       </c>
@@ -17199,7 +17212,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>2864</v>
       </c>
@@ -17219,7 +17232,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>2865</v>
       </c>
@@ -17239,7 +17252,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>2866</v>
       </c>
@@ -17259,7 +17272,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>2867</v>
       </c>
@@ -17279,7 +17292,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>2868</v>
       </c>
@@ -17299,7 +17312,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>2869</v>
       </c>
@@ -17319,7 +17332,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>2870</v>
       </c>
@@ -17339,7 +17352,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>2871</v>
       </c>
@@ -17359,7 +17372,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>2872</v>
       </c>
@@ -17379,7 +17392,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>2873</v>
       </c>
@@ -17399,7 +17412,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>2874</v>
       </c>
@@ -17419,7 +17432,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>2875</v>
       </c>
@@ -17439,7 +17452,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>2876</v>
       </c>
@@ -17459,7 +17472,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>2877</v>
       </c>
@@ -17479,7 +17492,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>2878</v>
       </c>
@@ -17499,7 +17512,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>2879</v>
       </c>
@@ -17519,7 +17532,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>2880</v>
       </c>
@@ -17539,7 +17552,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>2881</v>
       </c>
@@ -17559,7 +17572,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>2498</v>
       </c>
@@ -17579,7 +17592,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>2517</v>
       </c>
@@ -17599,7 +17612,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>2518</v>
       </c>
@@ -17619,7 +17632,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>2519</v>
       </c>
@@ -17639,7 +17652,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>2520</v>
       </c>
@@ -17659,7 +17672,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>2521</v>
       </c>
@@ -17679,7 +17692,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>2522</v>
       </c>
@@ -17699,7 +17712,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>2523</v>
       </c>
@@ -17719,7 +17732,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>2882</v>
       </c>
@@ -17739,7 +17752,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>2883</v>
       </c>
@@ -17759,7 +17772,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>2884</v>
       </c>
@@ -17779,7 +17792,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>2885</v>
       </c>
@@ -17799,7 +17812,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>2886</v>
       </c>
@@ -17819,7 +17832,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>2887</v>
       </c>
@@ -17839,7 +17852,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>2888</v>
       </c>
@@ -17859,7 +17872,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>2889</v>
       </c>
@@ -17879,7 +17892,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>2890</v>
       </c>
@@ -17899,7 +17912,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>2891</v>
       </c>
@@ -17919,7 +17932,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>2892</v>
       </c>
@@ -17939,7 +17952,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>2893</v>
       </c>
@@ -17959,7 +17972,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>2894</v>
       </c>
@@ -17979,7 +17992,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>2895</v>
       </c>
@@ -17999,7 +18012,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>2896</v>
       </c>
@@ -18019,7 +18032,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>2897</v>
       </c>
@@ -18039,7 +18052,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>2898</v>
       </c>
@@ -18059,7 +18072,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>2899</v>
       </c>
@@ -18079,7 +18092,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>2900</v>
       </c>
@@ -18099,7 +18112,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>2901</v>
       </c>
@@ -18119,7 +18132,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>2902</v>
       </c>
@@ -18139,7 +18152,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>2903</v>
       </c>
@@ -18159,7 +18172,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>2904</v>
       </c>
@@ -18179,7 +18192,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>2905</v>
       </c>
@@ -18199,7 +18212,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>2906</v>
       </c>
@@ -18219,7 +18232,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>2907</v>
       </c>
@@ -18239,7 +18252,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>2908</v>
       </c>
@@ -18259,7 +18272,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>2909</v>
       </c>
@@ -18279,7 +18292,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>2910</v>
       </c>
@@ -18299,7 +18312,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>2911</v>
       </c>
@@ -18319,7 +18332,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>2912</v>
       </c>
@@ -18339,7 +18352,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>2913</v>
       </c>
@@ -18359,7 +18372,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>2914</v>
       </c>
@@ -18379,7 +18392,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>2915</v>
       </c>
@@ -18392,14 +18405,14 @@
       <c r="D401" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E401" s="1" t="s">
+      <c r="E401" s="8" t="s">
         <v>867</v>
       </c>
       <c r="F401" s="7">
         <v>2011</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>2916</v>
       </c>
@@ -18419,7 +18432,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>2917</v>
       </c>
@@ -18439,7 +18452,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>2918</v>
       </c>
@@ -18459,7 +18472,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>2919</v>
       </c>
@@ -18479,7 +18492,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>2920</v>
       </c>
@@ -18499,7 +18512,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>2921</v>
       </c>
@@ -18519,7 +18532,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>2922</v>
       </c>
@@ -18539,7 +18552,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>2923</v>
       </c>
@@ -18559,7 +18572,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>2924</v>
       </c>
@@ -18579,7 +18592,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>2925</v>
       </c>
@@ -18599,7 +18612,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>2926</v>
       </c>
@@ -18619,7 +18632,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>2927</v>
       </c>
@@ -18639,7 +18652,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>2928</v>
       </c>
@@ -18659,7 +18672,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>2929</v>
       </c>
@@ -18679,7 +18692,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>2930</v>
       </c>
@@ -18699,7 +18712,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>2931</v>
       </c>
@@ -18719,7 +18732,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>2932</v>
       </c>
@@ -18739,7 +18752,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>2933</v>
       </c>
@@ -18759,7 +18772,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>2934</v>
       </c>
@@ -18779,7 +18792,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>2935</v>
       </c>
@@ -18799,7 +18812,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>2936</v>
       </c>
@@ -18819,7 +18832,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>2937</v>
       </c>
@@ -18839,7 +18852,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>2938</v>
       </c>
@@ -18859,7 +18872,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>2939</v>
       </c>
@@ -18879,7 +18892,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>2940</v>
       </c>
@@ -18899,7 +18912,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>2941</v>
       </c>
@@ -18919,7 +18932,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>2942</v>
       </c>
@@ -18939,7 +18952,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>2943</v>
       </c>
@@ -18959,7 +18972,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>2944</v>
       </c>
@@ -18979,7 +18992,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>2945</v>
       </c>
@@ -18999,7 +19012,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>2946</v>
       </c>
@@ -19019,7 +19032,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>2947</v>
       </c>
@@ -19039,7 +19052,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>2948</v>
       </c>
@@ -19059,7 +19072,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>2949</v>
       </c>
@@ -19079,7 +19092,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>2950</v>
       </c>
@@ -19099,7 +19112,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>2951</v>
       </c>
@@ -19119,7 +19132,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>2952</v>
       </c>
@@ -19139,7 +19152,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>2953</v>
       </c>
@@ -19159,7 +19172,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>2954</v>
       </c>
@@ -19179,7 +19192,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>2955</v>
       </c>
@@ -19199,7 +19212,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>2956</v>
       </c>
@@ -19219,7 +19232,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>2957</v>
       </c>
@@ -19239,7 +19252,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>2958</v>
       </c>
@@ -19259,7 +19272,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>2959</v>
       </c>
@@ -19279,7 +19292,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>2960</v>
       </c>
@@ -19299,7 +19312,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>2961</v>
       </c>
@@ -19319,7 +19332,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>2962</v>
       </c>
@@ -19339,7 +19352,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>2963</v>
       </c>
@@ -19359,7 +19372,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>2964</v>
       </c>
@@ -19379,7 +19392,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>2965</v>
       </c>
@@ -19399,7 +19412,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>2966</v>
       </c>
@@ -19419,7 +19432,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>2967</v>
       </c>
@@ -19439,7 +19452,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>2968</v>
       </c>
@@ -19459,7 +19472,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>2969</v>
       </c>
@@ -19479,7 +19492,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>2970</v>
       </c>
@@ -19499,7 +19512,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>2971</v>
       </c>
@@ -19519,7 +19532,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>2972</v>
       </c>
@@ -19539,7 +19552,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>2973</v>
       </c>
@@ -19559,7 +19572,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>2974</v>
       </c>
@@ -19579,7 +19592,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>2975</v>
       </c>
@@ -19599,7 +19612,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>2976</v>
       </c>
@@ -19619,7 +19632,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>2977</v>
       </c>
@@ -19639,7 +19652,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>2978</v>
       </c>
@@ -19659,7 +19672,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>2979</v>
       </c>
@@ -19679,7 +19692,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>2980</v>
       </c>
@@ -19699,7 +19712,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>2981</v>
       </c>
@@ -19719,7 +19732,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>2982</v>
       </c>
@@ -19739,7 +19752,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>2983</v>
       </c>
@@ -19759,7 +19772,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>2984</v>
       </c>
@@ -19779,7 +19792,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>2985</v>
       </c>
@@ -19799,7 +19812,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>2986</v>
       </c>
@@ -19819,7 +19832,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>2987</v>
       </c>
@@ -19839,7 +19852,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>2988</v>
       </c>
@@ -19859,7 +19872,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>2989</v>
       </c>
@@ -19879,7 +19892,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>2486</v>
       </c>
@@ -19899,7 +19912,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>2487</v>
       </c>
@@ -19919,7 +19932,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>2488</v>
       </c>
@@ -19939,7 +19952,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>2489</v>
       </c>
@@ -19959,7 +19972,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>2490</v>
       </c>
@@ -19979,7 +19992,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>2491</v>
       </c>
@@ -19999,7 +20012,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>2492</v>
       </c>
@@ -20019,7 +20032,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>2493</v>
       </c>
@@ -20039,7 +20052,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>2494</v>
       </c>
@@ -20059,7 +20072,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>2495</v>
       </c>
@@ -20079,7 +20092,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>2496</v>
       </c>
@@ -20099,7 +20112,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>2497</v>
       </c>
@@ -20119,7 +20132,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>2499</v>
       </c>
@@ -20139,7 +20152,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>2500</v>
       </c>
@@ -20159,7 +20172,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>2501</v>
       </c>
@@ -20179,7 +20192,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>2502</v>
       </c>
@@ -20199,7 +20212,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>2503</v>
       </c>
@@ -20219,7 +20232,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>2504</v>
       </c>
@@ -20239,7 +20252,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>2505</v>
       </c>
@@ -20259,7 +20272,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>2506</v>
       </c>
@@ -20279,7 +20292,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>2507</v>
       </c>
@@ -20299,7 +20312,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>2508</v>
       </c>
@@ -20319,7 +20332,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>2509</v>
       </c>
@@ -20339,7 +20352,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>2510</v>
       </c>
@@ -20359,7 +20372,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>2511</v>
       </c>
@@ -20379,7 +20392,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>2512</v>
       </c>
@@ -20399,7 +20412,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>2513</v>
       </c>
@@ -20419,7 +20432,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>2514</v>
       </c>
@@ -20439,7 +20452,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>2515</v>
       </c>
@@ -20459,7 +20472,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>2516</v>
       </c>
@@ -20479,7 +20492,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>2990</v>
       </c>
@@ -20499,7 +20512,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>2991</v>
       </c>
@@ -20519,7 +20532,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>2992</v>
       </c>
@@ -20539,7 +20552,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>2993</v>
       </c>
@@ -20559,7 +20572,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>2994</v>
       </c>
@@ -20579,7 +20592,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>2995</v>
       </c>
@@ -20599,7 +20612,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>2996</v>
       </c>
@@ -20619,7 +20632,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>2997</v>
       </c>
@@ -20639,7 +20652,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>2998</v>
       </c>
@@ -20659,7 +20672,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>2999</v>
       </c>
@@ -20679,7 +20692,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>3000</v>
       </c>
@@ -20699,7 +20712,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>3001</v>
       </c>
@@ -20719,7 +20732,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>3002</v>
       </c>
@@ -20739,7 +20752,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>3003</v>
       </c>
@@ -20759,7 +20772,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>3004</v>
       </c>
@@ -20779,7 +20792,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>3005</v>
       </c>
@@ -20799,7 +20812,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>3006</v>
       </c>
@@ -20819,7 +20832,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>3007</v>
       </c>
@@ -20837,7 +20850,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>3008</v>
       </c>
@@ -20857,7 +20870,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>3009</v>
       </c>
@@ -20877,7 +20890,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>3010</v>
       </c>
@@ -20897,7 +20910,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>3011</v>
       </c>
@@ -20917,7 +20930,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>3012</v>
       </c>
@@ -20937,7 +20950,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>3013</v>
       </c>
@@ -20957,7 +20970,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>3014</v>
       </c>
@@ -20977,7 +20990,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>3015</v>
       </c>
@@ -20997,7 +21010,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>3016</v>
       </c>
@@ -21017,7 +21030,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>3017</v>
       </c>
@@ -21037,7 +21050,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>3018</v>
       </c>
@@ -21057,7 +21070,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>3019</v>
       </c>
@@ -21077,7 +21090,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>3020</v>
       </c>
@@ -21097,7 +21110,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>3021</v>
       </c>
@@ -21117,7 +21130,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>3022</v>
       </c>
@@ -21137,7 +21150,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>3023</v>
       </c>
@@ -21157,7 +21170,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>3024</v>
       </c>
@@ -21177,7 +21190,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>3025</v>
       </c>
@@ -21197,7 +21210,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>3026</v>
       </c>
@@ -21217,7 +21230,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>3027</v>
       </c>
@@ -21237,7 +21250,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>3028</v>
       </c>
@@ -21257,7 +21270,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>3029</v>
       </c>
@@ -21277,7 +21290,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>3030</v>
       </c>
@@ -21297,7 +21310,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>3031</v>
       </c>
@@ -21317,7 +21330,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>3032</v>
       </c>
@@ -21337,7 +21350,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>3033</v>
       </c>
@@ -21357,7 +21370,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>3034</v>
       </c>
@@ -21377,7 +21390,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>3035</v>
       </c>
@@ -21397,7 +21410,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>3036</v>
       </c>
@@ -21417,7 +21430,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>3037</v>
       </c>
@@ -21437,7 +21450,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>3038</v>
       </c>
@@ -21457,7 +21470,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>3039</v>
       </c>
@@ -21477,7 +21490,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>3040</v>
       </c>
@@ -21497,7 +21510,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>3041</v>
       </c>
@@ -21517,7 +21530,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>3042</v>
       </c>
@@ -21537,7 +21550,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>3043</v>
       </c>
@@ -21557,7 +21570,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>3044</v>
       </c>
@@ -21577,7 +21590,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>3045</v>
       </c>
@@ -21597,7 +21610,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>3046</v>
       </c>
@@ -21617,7 +21630,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>3047</v>
       </c>
@@ -21637,7 +21650,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>3048</v>
       </c>
@@ -21657,7 +21670,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>3049</v>
       </c>
@@ -21677,7 +21690,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>3050</v>
       </c>
@@ -21697,7 +21710,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>3051</v>
       </c>
@@ -21717,7 +21730,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>3052</v>
       </c>
@@ -21737,7 +21750,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>3053</v>
       </c>
@@ -21757,7 +21770,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>3054</v>
       </c>
@@ -21777,7 +21790,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>3055</v>
       </c>
@@ -21797,7 +21810,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>3056</v>
       </c>
@@ -21817,7 +21830,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>3057</v>
       </c>
@@ -21837,7 +21850,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>3058</v>
       </c>
@@ -21857,7 +21870,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>3059</v>
       </c>
@@ -21877,7 +21890,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>3060</v>
       </c>
@@ -21897,7 +21910,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>3061</v>
       </c>
@@ -21917,7 +21930,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>3062</v>
       </c>
@@ -21937,7 +21950,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>3063</v>
       </c>
@@ -21957,7 +21970,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>3064</v>
       </c>
@@ -21977,7 +21990,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>3065</v>
       </c>
@@ -21997,7 +22010,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>3066</v>
       </c>
@@ -22017,7 +22030,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>1168</v>
       </c>
@@ -22037,7 +22050,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>3067</v>
       </c>
@@ -22057,7 +22070,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>3068</v>
       </c>
@@ -22077,7 +22090,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>3069</v>
       </c>
@@ -22097,7 +22110,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>3070</v>
       </c>
@@ -22117,7 +22130,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>3071</v>
       </c>
@@ -22137,7 +22150,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>3072</v>
       </c>
@@ -22157,7 +22170,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>3073</v>
       </c>
@@ -22177,7 +22190,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>3074</v>
       </c>
@@ -22197,7 +22210,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>3075</v>
       </c>
@@ -22217,7 +22230,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>3076</v>
       </c>
@@ -22237,7 +22250,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>3077</v>
       </c>
@@ -22257,7 +22270,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>3078</v>
       </c>
@@ -22277,7 +22290,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>3079</v>
       </c>
@@ -22297,7 +22310,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>3080</v>
       </c>
@@ -22317,7 +22330,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>3081</v>
       </c>
@@ -22337,7 +22350,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>3082</v>
       </c>
@@ -22357,7 +22370,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>3083</v>
       </c>
@@ -22377,7 +22390,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>3084</v>
       </c>
@@ -22397,7 +22410,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>3085</v>
       </c>
@@ -22417,7 +22430,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>3086</v>
       </c>
@@ -22437,7 +22450,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>3087</v>
       </c>
@@ -22457,7 +22470,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>3088</v>
       </c>
@@ -22477,7 +22490,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>3089</v>
       </c>
@@ -22497,7 +22510,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>3090</v>
       </c>
@@ -22517,7 +22530,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>3091</v>
       </c>
@@ -22537,7 +22550,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>3092</v>
       </c>
@@ -22557,7 +22570,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>3093</v>
       </c>
@@ -22577,7 +22590,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>3094</v>
       </c>
@@ -22597,7 +22610,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>3095</v>
       </c>
@@ -22617,7 +22630,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>3096</v>
       </c>
@@ -22637,7 +22650,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>3097</v>
       </c>
@@ -22657,7 +22670,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>3098</v>
       </c>
@@ -22677,7 +22690,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>3099</v>
       </c>
@@ -22697,7 +22710,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>3100</v>
       </c>
@@ -22717,7 +22730,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>3101</v>
       </c>
@@ -22737,7 +22750,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>3102</v>
       </c>
@@ -22757,7 +22770,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>3103</v>
       </c>
@@ -22777,7 +22790,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>3104</v>
       </c>
@@ -22797,7 +22810,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>3105</v>
       </c>
@@ -22817,7 +22830,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>3106</v>
       </c>
@@ -22837,7 +22850,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>3107</v>
       </c>
@@ -22857,7 +22870,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>3108</v>
       </c>
@@ -22877,7 +22890,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>3109</v>
       </c>
@@ -22897,7 +22910,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>3110</v>
       </c>
@@ -22917,7 +22930,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>3111</v>
       </c>
@@ -22937,7 +22950,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>3112</v>
       </c>
@@ -22957,7 +22970,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>3113</v>
       </c>
@@ -22977,7 +22990,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>3114</v>
       </c>
@@ -22997,7 +23010,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>3115</v>
       </c>
@@ -23017,7 +23030,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>3116</v>
       </c>
@@ -23037,7 +23050,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>3117</v>
       </c>
@@ -23057,7 +23070,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>3118</v>
       </c>
@@ -23077,7 +23090,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>3119</v>
       </c>
@@ -23097,7 +23110,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>3120</v>
       </c>
@@ -23117,7 +23130,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>3121</v>
       </c>
@@ -23137,7 +23150,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>3122</v>
       </c>
@@ -23157,7 +23170,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>3123</v>
       </c>
@@ -23177,7 +23190,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>3124</v>
       </c>
@@ -23197,7 +23210,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>3125</v>
       </c>
@@ -23217,7 +23230,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>3126</v>
       </c>
@@ -23237,7 +23250,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>3127</v>
       </c>
@@ -23257,7 +23270,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>3128</v>
       </c>
@@ -23277,7 +23290,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>3129</v>
       </c>
@@ -23297,7 +23310,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>3130</v>
       </c>
@@ -23317,7 +23330,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>3131</v>
       </c>
@@ -23337,7 +23350,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>3132</v>
       </c>
@@ -23357,7 +23370,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>3133</v>
       </c>
@@ -23377,7 +23390,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="651" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>3134</v>
       </c>
@@ -23397,7 +23410,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>3135</v>
       </c>
@@ -23417,7 +23430,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>3136</v>
       </c>
@@ -23437,7 +23450,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>3137</v>
       </c>
@@ -23455,7 +23468,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>3138</v>
       </c>
@@ -23475,7 +23488,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>3139</v>
       </c>
@@ -23495,7 +23508,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>3140</v>
       </c>
@@ -23515,7 +23528,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>3141</v>
       </c>
@@ -23535,7 +23548,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>3142</v>
       </c>
@@ -23555,7 +23568,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>3143</v>
       </c>
@@ -23575,7 +23588,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>3144</v>
       </c>
@@ -23595,7 +23608,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>3145</v>
       </c>
@@ -23615,7 +23628,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>3146</v>
       </c>
@@ -23635,7 +23648,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>3147</v>
       </c>
@@ -23655,7 +23668,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>3148</v>
       </c>
@@ -23675,7 +23688,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>3149</v>
       </c>
@@ -23695,7 +23708,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>3150</v>
       </c>
@@ -23715,7 +23728,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>3151</v>
       </c>
@@ -23735,7 +23748,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>3152</v>
       </c>
@@ -23755,7 +23768,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>3153</v>
       </c>
@@ -23775,7 +23788,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>3154</v>
       </c>
@@ -23795,7 +23808,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>3155</v>
       </c>
@@ -23815,7 +23828,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>3156</v>
       </c>
@@ -23835,7 +23848,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>3157</v>
       </c>
@@ -23855,7 +23868,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="675" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>3158</v>
       </c>
@@ -23875,7 +23888,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="676" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>3159</v>
       </c>
@@ -23895,7 +23908,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="677" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>3160</v>
       </c>
@@ -23915,7 +23928,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>3161</v>
       </c>
@@ -23935,7 +23948,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="679" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>3162</v>
       </c>
@@ -23955,7 +23968,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>3163</v>
       </c>
@@ -23975,7 +23988,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="681" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>3164</v>
       </c>
@@ -23995,7 +24008,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="682" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>3165</v>
       </c>
@@ -24015,7 +24028,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="683" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>3166</v>
       </c>
@@ -24035,7 +24048,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="684" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>3167</v>
       </c>
@@ -24055,7 +24068,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="685" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>3168</v>
       </c>
@@ -24075,7 +24088,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="686" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>3169</v>
       </c>
@@ -24095,7 +24108,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>3170</v>
       </c>
@@ -24115,7 +24128,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="688" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>3171</v>
       </c>
@@ -24135,7 +24148,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>3172</v>
       </c>
@@ -24155,7 +24168,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>3173</v>
       </c>
@@ -24175,7 +24188,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>3174</v>
       </c>
@@ -24195,7 +24208,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>3175</v>
       </c>
@@ -24215,7 +24228,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="693" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>3176</v>
       </c>
@@ -24235,7 +24248,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="694" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>3177</v>
       </c>
@@ -24255,7 +24268,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>3178</v>
       </c>
@@ -24275,7 +24288,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="696" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>3179</v>
       </c>
@@ -24295,7 +24308,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>3180</v>
       </c>
@@ -24315,7 +24328,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="698" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>3181</v>
       </c>
@@ -24335,7 +24348,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>3182</v>
       </c>
@@ -24355,7 +24368,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>3183</v>
       </c>
@@ -24375,7 +24388,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>3184</v>
       </c>
@@ -24395,7 +24408,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="702" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>3185</v>
       </c>
@@ -24415,7 +24428,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>3186</v>
       </c>
@@ -24435,7 +24448,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>3187</v>
       </c>
@@ -24455,7 +24468,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>3188</v>
       </c>
@@ -24475,7 +24488,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>3189</v>
       </c>
@@ -24495,7 +24508,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>3190</v>
       </c>
@@ -24515,7 +24528,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>3191</v>
       </c>
@@ -24535,7 +24548,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>3192</v>
       </c>
@@ -24555,7 +24568,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="710" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>3193</v>
       </c>
@@ -24575,7 +24588,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>3194</v>
       </c>
@@ -24595,7 +24608,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>3195</v>
       </c>
@@ -24615,7 +24628,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="713" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>3196</v>
       </c>
@@ -24635,7 +24648,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="714" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
         <v>3197</v>
       </c>
@@ -24655,7 +24668,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="715" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>3198</v>
       </c>
@@ -24675,7 +24688,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="716" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>3199</v>
       </c>
@@ -24695,7 +24708,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="717" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>3200</v>
       </c>
@@ -24715,7 +24728,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>3201</v>
       </c>
@@ -24735,7 +24748,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>3202</v>
       </c>
@@ -24755,7 +24768,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>3203</v>
       </c>
@@ -24775,7 +24788,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="721" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>3204</v>
       </c>
@@ -24795,7 +24808,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="722" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>3205</v>
       </c>
@@ -24815,7 +24828,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
         <v>3206</v>
       </c>
@@ -24835,7 +24848,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
         <v>3207</v>
       </c>
@@ -24855,7 +24868,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
         <v>3208</v>
       </c>
@@ -24875,7 +24888,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
         <v>3209</v>
       </c>
@@ -24895,7 +24908,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
         <v>3210</v>
       </c>
@@ -24915,7 +24928,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>3211</v>
       </c>
@@ -24935,7 +24948,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
         <v>3212</v>
       </c>
@@ -24955,7 +24968,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
         <v>3213</v>
       </c>
@@ -24975,7 +24988,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
         <v>3214</v>
       </c>
@@ -24995,7 +25008,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
         <v>3215</v>
       </c>
@@ -25015,7 +25028,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
         <v>3216</v>
       </c>
@@ -25035,7 +25048,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
         <v>3217</v>
       </c>
@@ -25055,7 +25068,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1" t="s">
         <v>3218</v>
       </c>
@@ -25075,7 +25088,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
         <v>3219</v>
       </c>
@@ -25095,7 +25108,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
         <v>3220</v>
       </c>
@@ -25115,7 +25128,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
         <v>3221</v>
       </c>
@@ -25135,7 +25148,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
         <v>3222</v>
       </c>
@@ -25155,7 +25168,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="740" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>3223</v>
       </c>
@@ -25175,7 +25188,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="741" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
         <v>3224</v>
       </c>
@@ -25195,7 +25208,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="742" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>3225</v>
       </c>
@@ -25215,7 +25228,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="743" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>3226</v>
       </c>
@@ -25235,7 +25248,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="744" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
         <v>3227</v>
       </c>
@@ -25255,7 +25268,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="745" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>3228</v>
       </c>
@@ -25275,7 +25288,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="746" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>3229</v>
       </c>
@@ -25295,7 +25308,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="747" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
         <v>3230</v>
       </c>
@@ -25315,7 +25328,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>1503</v>
       </c>
@@ -25335,7 +25348,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="749" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>3231</v>
       </c>
@@ -25355,7 +25368,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="750" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>3232</v>
       </c>
@@ -25375,7 +25388,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>3233</v>
       </c>
@@ -25395,7 +25408,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="752" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>3234</v>
       </c>
@@ -25415,7 +25428,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="753" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
         <v>3235</v>
       </c>
@@ -25435,7 +25448,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="754" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>3236</v>
       </c>
@@ -25455,7 +25468,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="755" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>3237</v>
       </c>
@@ -25475,7 +25488,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="756" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>3238</v>
       </c>
@@ -25495,7 +25508,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="757" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>3239</v>
       </c>
@@ -25515,7 +25528,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="758" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>3240</v>
       </c>
@@ -25535,7 +25548,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
         <v>3241</v>
       </c>
@@ -25555,7 +25568,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="760" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>3242</v>
       </c>
@@ -25575,7 +25588,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>3243</v>
       </c>
@@ -25595,7 +25608,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>3244</v>
       </c>
@@ -25615,7 +25628,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="763" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>3245</v>
       </c>
@@ -25635,7 +25648,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="764" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>3246</v>
       </c>
@@ -25655,7 +25668,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="765" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>3247</v>
       </c>
@@ -25675,7 +25688,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="766" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>3248</v>
       </c>
@@ -25695,7 +25708,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="767" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>3249</v>
       </c>
@@ -25715,7 +25728,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="768" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
         <v>3250</v>
       </c>
@@ -25735,7 +25748,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="769" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
         <v>3251</v>
       </c>
@@ -25755,7 +25768,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="770" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
         <v>3252</v>
       </c>
@@ -25775,7 +25788,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="771" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
         <v>3253</v>
       </c>
@@ -25795,7 +25808,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="772" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
         <v>3254</v>
       </c>
@@ -25815,7 +25828,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
         <v>3255</v>
       </c>
@@ -25835,7 +25848,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="774" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
         <v>3256</v>
       </c>
@@ -25855,7 +25868,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
         <v>3257</v>
       </c>
@@ -25875,7 +25888,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
         <v>3258</v>
       </c>
@@ -25895,7 +25908,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1" t="s">
         <v>3259</v>
       </c>
@@ -25915,7 +25928,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
         <v>3260</v>
       </c>
@@ -25935,7 +25948,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="779" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
         <v>3261</v>
       </c>
@@ -25955,7 +25968,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="780" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
         <v>3262</v>
       </c>
@@ -25975,7 +25988,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="781" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
         <v>3263</v>
       </c>
@@ -25995,7 +26008,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="782" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
         <v>3264</v>
       </c>
@@ -26015,7 +26028,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
         <v>3265</v>
       </c>
@@ -26035,7 +26048,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="784" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
         <v>3266</v>
       </c>
@@ -26055,7 +26068,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="785" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
         <v>1579</v>
       </c>
@@ -26075,7 +26088,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="786" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1" t="s">
         <v>3267</v>
       </c>
@@ -26095,7 +26108,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="787" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1" t="s">
         <v>3268</v>
       </c>
@@ -26115,7 +26128,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="788" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1" t="s">
         <v>3269</v>
       </c>
@@ -26135,7 +26148,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="789" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1" t="s">
         <v>3270</v>
       </c>
@@ -26155,7 +26168,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="790" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1" t="s">
         <v>3271</v>
       </c>
@@ -26175,7 +26188,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="791" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1" t="s">
         <v>3272</v>
       </c>
@@ -26195,7 +26208,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1" t="s">
         <v>3273</v>
       </c>
@@ -26215,7 +26228,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="793" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1" t="s">
         <v>3274</v>
       </c>
@@ -26235,7 +26248,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1" t="s">
         <v>3275</v>
       </c>
@@ -26255,7 +26268,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1" t="s">
         <v>3276</v>
       </c>
@@ -26275,7 +26288,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="796" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1" t="s">
         <v>3277</v>
       </c>
@@ -26295,7 +26308,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="797" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1" t="s">
         <v>3278</v>
       </c>
@@ -26315,7 +26328,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="798" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1" t="s">
         <v>3279</v>
       </c>
@@ -26335,7 +26348,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1" t="s">
         <v>3280</v>
       </c>
@@ -26355,7 +26368,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="800" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1" t="s">
         <v>3281</v>
       </c>
@@ -26375,7 +26388,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="801" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1" t="s">
         <v>3282</v>
       </c>
@@ -26395,7 +26408,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="802" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1" t="s">
         <v>3283</v>
       </c>
@@ -26415,7 +26428,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="803" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1" t="s">
         <v>3284</v>
       </c>
@@ -26435,7 +26448,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="804" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1" t="s">
         <v>3285</v>
       </c>
@@ -26455,7 +26468,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="805" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1" t="s">
         <v>3286</v>
       </c>
@@ -26475,7 +26488,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="806" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1" t="s">
         <v>3287</v>
       </c>
@@ -26495,7 +26508,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="807" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1" t="s">
         <v>1624</v>
       </c>
@@ -26515,7 +26528,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="808" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1" t="s">
         <v>1627</v>
       </c>
@@ -26535,7 +26548,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="809" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1" t="s">
         <v>3288</v>
       </c>
@@ -26555,7 +26568,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="810" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1" t="s">
         <v>1632</v>
       </c>
@@ -26575,7 +26588,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="811" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1" t="s">
         <v>1635</v>
       </c>
@@ -26595,7 +26608,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="812" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1" t="s">
         <v>3289</v>
       </c>
@@ -26615,7 +26628,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="813" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1" t="s">
         <v>3290</v>
       </c>
@@ -26635,7 +26648,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="814" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1" t="s">
         <v>3291</v>
       </c>
@@ -26655,7 +26668,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="815" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1" t="s">
         <v>3292</v>
       </c>
@@ -26675,7 +26688,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="816" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1" t="s">
         <v>3293</v>
       </c>
@@ -26695,7 +26708,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1" t="s">
         <v>3294</v>
       </c>
@@ -26715,7 +26728,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="818" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1" t="s">
         <v>3295</v>
       </c>
@@ -26735,7 +26748,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1" t="s">
         <v>3296</v>
       </c>
@@ -26755,7 +26768,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="820" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1" t="s">
         <v>3297</v>
       </c>
@@ -26775,7 +26788,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="821" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1" t="s">
         <v>3298</v>
       </c>
@@ -26795,7 +26808,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="822" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1" t="s">
         <v>3299</v>
       </c>
@@ -26815,7 +26828,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="823" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1" t="s">
         <v>3300</v>
       </c>
@@ -26835,7 +26848,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="824" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1" t="s">
         <v>3301</v>
       </c>
@@ -26855,7 +26868,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="825" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1" t="s">
         <v>3302</v>
       </c>
@@ -26875,7 +26888,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="826" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1" t="s">
         <v>3303</v>
       </c>
@@ -26895,7 +26908,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1" t="s">
         <v>1668</v>
       </c>
@@ -26915,7 +26928,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1" t="s">
         <v>1671</v>
       </c>
@@ -26935,7 +26948,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="829" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1" t="s">
         <v>1674</v>
       </c>
@@ -26955,7 +26968,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="830" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1" t="s">
         <v>1677</v>
       </c>
@@ -26975,7 +26988,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="831" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1" t="s">
         <v>1680</v>
       </c>
@@ -26995,7 +27008,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1" t="s">
         <v>1683</v>
       </c>
@@ -27015,7 +27028,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="833" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1" t="s">
         <v>1686</v>
       </c>
@@ -27035,7 +27048,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="834" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1" t="s">
         <v>1689</v>
       </c>
@@ -27055,7 +27068,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="835" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1" t="s">
         <v>1692</v>
       </c>
@@ -27075,7 +27088,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="836" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1" t="s">
         <v>1695</v>
       </c>
@@ -27095,7 +27108,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="837" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1" t="s">
         <v>1698</v>
       </c>
@@ -27115,7 +27128,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1" t="s">
         <v>1701</v>
       </c>
@@ -27135,7 +27148,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1" t="s">
         <v>1704</v>
       </c>
@@ -27155,7 +27168,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="840" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1" t="s">
         <v>1707</v>
       </c>
@@ -27175,7 +27188,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="841" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1" t="s">
         <v>1710</v>
       </c>
@@ -27195,7 +27208,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="842" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1" t="s">
         <v>1713</v>
       </c>
@@ -27215,7 +27228,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="843" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1" t="s">
         <v>1716</v>
       </c>
@@ -27235,7 +27248,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="844" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1" t="s">
         <v>1719</v>
       </c>
@@ -27255,7 +27268,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="845" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1" t="s">
         <v>1722</v>
       </c>
@@ -27275,7 +27288,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="846" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1" t="s">
         <v>1725</v>
       </c>
@@ -27295,7 +27308,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="847" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1" t="s">
         <v>1729</v>
       </c>
@@ -27315,7 +27328,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="848" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1" t="s">
         <v>1732</v>
       </c>
@@ -27335,7 +27348,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="849" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1" t="s">
         <v>1735</v>
       </c>
@@ -27355,7 +27368,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="850" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1" t="s">
         <v>1738</v>
       </c>
@@ -27375,7 +27388,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="851" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1" t="s">
         <v>1741</v>
       </c>
@@ -27395,7 +27408,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="852" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1" t="s">
         <v>1744</v>
       </c>
@@ -27415,7 +27428,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="853" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1" t="s">
         <v>1747</v>
       </c>
@@ -27435,7 +27448,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="854" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1" t="s">
         <v>1750</v>
       </c>
@@ -27455,7 +27468,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="855" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1" t="s">
         <v>1753</v>
       </c>
@@ -27475,7 +27488,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="856" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1" t="s">
         <v>1756</v>
       </c>
@@ -27495,7 +27508,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="857" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1" t="s">
         <v>1759</v>
       </c>
@@ -27515,7 +27528,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="858" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1" t="s">
         <v>1762</v>
       </c>
@@ -27535,7 +27548,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="859" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1" t="s">
         <v>1765</v>
       </c>
@@ -27555,7 +27568,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1" t="s">
         <v>1768</v>
       </c>
@@ -27575,7 +27588,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="861" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1" t="s">
         <v>1771</v>
       </c>
@@ -27595,7 +27608,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="862" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1" t="s">
         <v>1774</v>
       </c>
@@ -27608,14 +27621,14 @@
       <c r="D862" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E862" s="1" t="s">
+      <c r="E862" s="8" t="s">
         <v>1776</v>
       </c>
       <c r="F862" s="7">
         <v>2018</v>
       </c>
     </row>
-    <row r="863" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1" t="s">
         <v>1777</v>
       </c>
@@ -27635,7 +27648,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="864" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1" t="s">
         <v>1780</v>
       </c>
@@ -27655,7 +27668,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="865" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1" t="s">
         <v>1783</v>
       </c>
@@ -27675,7 +27688,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="866" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1" t="s">
         <v>1786</v>
       </c>
@@ -27695,7 +27708,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="867" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1" t="s">
         <v>1789</v>
       </c>
@@ -27715,7 +27728,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="868" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1" t="s">
         <v>1792</v>
       </c>
@@ -27735,7 +27748,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="869" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1" t="s">
         <v>1795</v>
       </c>
@@ -27755,7 +27768,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="870" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="1" t="s">
         <v>1798</v>
       </c>
@@ -27775,7 +27788,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="871" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1" t="s">
         <v>1801</v>
       </c>
@@ -27795,7 +27808,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="872" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27815,7 +27828,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="873" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="1" t="s">
         <v>1807</v>
       </c>
@@ -27835,7 +27848,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="874" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="1" t="s">
         <v>1810</v>
       </c>
@@ -27855,7 +27868,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="875" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="1" t="s">
         <v>1813</v>
       </c>
@@ -27875,7 +27888,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="876" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="1" t="s">
         <v>1816</v>
       </c>
@@ -27895,7 +27908,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="877" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="1" t="s">
         <v>1819</v>
       </c>
@@ -27915,7 +27928,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="878" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="1" t="s">
         <v>1822</v>
       </c>
@@ -27935,7 +27948,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="879" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="1" t="s">
         <v>1825</v>
       </c>
@@ -27955,7 +27968,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="880" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="1" t="s">
         <v>1828</v>
       </c>
@@ -27975,7 +27988,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="881" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="1" t="s">
         <v>1831</v>
       </c>
@@ -27995,7 +28008,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="882" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="1" t="s">
         <v>1834</v>
       </c>
@@ -28015,7 +28028,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="1" t="s">
         <v>1837</v>
       </c>
@@ -28035,7 +28048,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="884" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="1" t="s">
         <v>1840</v>
       </c>
@@ -28055,7 +28068,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="885" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="1" t="s">
         <v>1843</v>
       </c>
@@ -28075,7 +28088,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="886" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="1" t="s">
         <v>1846</v>
       </c>
@@ -28095,7 +28108,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="887" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="1" t="s">
         <v>1849</v>
       </c>
@@ -28115,7 +28128,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="888" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="1" t="s">
         <v>1852</v>
       </c>
@@ -28135,7 +28148,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="889" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="1" t="s">
         <v>1855</v>
       </c>
@@ -28155,7 +28168,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="890" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="1" t="s">
         <v>1858</v>
       </c>
@@ -28175,7 +28188,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="891" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="1" t="s">
         <v>1861</v>
       </c>
@@ -28195,7 +28208,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="892" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="1" t="s">
         <v>1864</v>
       </c>
@@ -28215,7 +28228,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="1" t="s">
         <v>1867</v>
       </c>
@@ -28235,7 +28248,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="894" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="1" t="s">
         <v>1870</v>
       </c>
@@ -28255,7 +28268,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="895" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="1" t="s">
         <v>1873</v>
       </c>
@@ -28275,7 +28288,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="896" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="1" t="s">
         <v>1876</v>
       </c>
@@ -28295,7 +28308,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="1" t="s">
         <v>1879</v>
       </c>
@@ -28315,7 +28328,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="898" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="1" t="s">
         <v>1882</v>
       </c>
@@ -28335,7 +28348,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="899" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="1" t="s">
         <v>1885</v>
       </c>
@@ -28355,7 +28368,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="900" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="1" t="s">
         <v>1888</v>
       </c>
@@ -28375,7 +28388,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="901" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="1" t="s">
         <v>1891</v>
       </c>
@@ -28395,7 +28408,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="1" t="s">
         <v>1894</v>
       </c>
@@ -28415,7 +28428,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="903" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="1" t="s">
         <v>1897</v>
       </c>
@@ -28435,7 +28448,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="904" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="1" t="s">
         <v>1900</v>
       </c>
@@ -28455,7 +28468,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="905" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="1" t="s">
         <v>1903</v>
       </c>
@@ -28475,7 +28488,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="906" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="1" t="s">
         <v>1906</v>
       </c>
@@ -28495,7 +28508,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="907" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="1" t="s">
         <v>1909</v>
       </c>
@@ -28515,7 +28528,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="908" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="1" t="s">
         <v>1912</v>
       </c>
@@ -28535,7 +28548,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="909" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="1" t="s">
         <v>1916</v>
       </c>
@@ -28555,7 +28568,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="910" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="1" t="s">
         <v>1919</v>
       </c>
@@ -28575,7 +28588,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="911" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="1" t="s">
         <v>1922</v>
       </c>
@@ -28595,7 +28608,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="912" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="1" t="s">
         <v>1925</v>
       </c>
@@ -28615,7 +28628,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="913" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="1" t="s">
         <v>1928</v>
       </c>
@@ -28635,7 +28648,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="914" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="1" t="s">
         <v>1931</v>
       </c>
@@ -28655,7 +28668,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="1" t="s">
         <v>1934</v>
       </c>
@@ -28675,7 +28688,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="1" t="s">
         <v>1937</v>
       </c>
@@ -28695,7 +28708,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="917" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="1" t="s">
         <v>1940</v>
       </c>
@@ -28715,7 +28728,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="918" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="1" t="s">
         <v>1943</v>
       </c>
@@ -28735,7 +28748,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="919" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="1" t="s">
         <v>1946</v>
       </c>
@@ -28755,7 +28768,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="1" t="s">
         <v>1949</v>
       </c>
@@ -28775,7 +28788,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="921" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="1" t="s">
         <v>1952</v>
       </c>
@@ -28795,7 +28808,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="922" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="1" t="s">
         <v>1955</v>
       </c>
@@ -28815,7 +28828,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="923" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="1" t="s">
         <v>1958</v>
       </c>
@@ -28835,7 +28848,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="924" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="1" t="s">
         <v>1961</v>
       </c>
@@ -28855,7 +28868,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="925" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="1" t="s">
         <v>1964</v>
       </c>
@@ -28875,7 +28888,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="926" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="1" t="s">
         <v>1967</v>
       </c>
@@ -28895,7 +28908,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="1" t="s">
         <v>1970</v>
       </c>
@@ -28915,7 +28928,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="1" t="s">
         <v>1973</v>
       </c>
@@ -28935,7 +28948,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="929" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="1" t="s">
         <v>1976</v>
       </c>
@@ -28955,7 +28968,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="930" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="1" t="s">
         <v>1979</v>
       </c>
@@ -28975,7 +28988,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="931" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="1" t="s">
         <v>1982</v>
       </c>
@@ -28995,7 +29008,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="932" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="1" t="s">
         <v>1985</v>
       </c>
@@ -29015,7 +29028,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="933" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="1" t="s">
         <v>1988</v>
       </c>
@@ -29035,7 +29048,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="934" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="1" t="s">
         <v>1991</v>
       </c>
@@ -29055,7 +29068,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="935" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="1" t="s">
         <v>1994</v>
       </c>
@@ -29075,7 +29088,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="936" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="1" t="s">
         <v>1997</v>
       </c>
@@ -29095,7 +29108,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="937" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="1" t="s">
         <v>2000</v>
       </c>
@@ -29115,7 +29128,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="938" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="1" t="s">
         <v>2004</v>
       </c>
@@ -29135,7 +29148,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="939" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="1" t="s">
         <v>2007</v>
       </c>
@@ -29155,7 +29168,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="940" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="1" t="s">
         <v>2010</v>
       </c>
@@ -29175,7 +29188,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="941" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="1" t="s">
         <v>2013</v>
       </c>
@@ -29195,7 +29208,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="942" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="1" t="s">
         <v>2016</v>
       </c>
@@ -29215,7 +29228,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="943" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="1" t="s">
         <v>2019</v>
       </c>
@@ -29235,7 +29248,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="944" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="1" t="s">
         <v>2022</v>
       </c>
@@ -29255,7 +29268,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="945" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="1" t="s">
         <v>2025</v>
       </c>
@@ -29275,7 +29288,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="946" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="1" t="s">
         <v>2028</v>
       </c>
@@ -29295,7 +29308,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="947" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="1" t="s">
         <v>2031</v>
       </c>
@@ -29315,7 +29328,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="948" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="1" t="s">
         <v>2034</v>
       </c>
@@ -29335,7 +29348,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="949" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="1" t="s">
         <v>2037</v>
       </c>
@@ -29355,7 +29368,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="950" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="1" t="s">
         <v>2040</v>
       </c>
@@ -29375,7 +29388,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="951" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="1" t="s">
         <v>2043</v>
       </c>
@@ -29395,7 +29408,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="952" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="1" t="s">
         <v>2046</v>
       </c>
@@ -29415,7 +29428,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="953" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="1" t="s">
         <v>2049</v>
       </c>
@@ -29435,7 +29448,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="954" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="1" t="s">
         <v>2052</v>
       </c>
@@ -29455,7 +29468,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="955" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="1" t="s">
         <v>2055</v>
       </c>
@@ -29475,7 +29488,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="956" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="1" t="s">
         <v>2058</v>
       </c>
@@ -29495,7 +29508,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="957" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="1" t="s">
         <v>2061</v>
       </c>
@@ -29515,7 +29528,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="958" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="1" t="s">
         <v>2064</v>
       </c>
@@ -29535,7 +29548,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="959" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="1" t="s">
         <v>2067</v>
       </c>
@@ -29555,7 +29568,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="960" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="1" t="s">
         <v>2070</v>
       </c>
@@ -29575,7 +29588,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="961" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="1" t="s">
         <v>2073</v>
       </c>
@@ -29595,7 +29608,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="962" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="1" t="s">
         <v>2076</v>
       </c>
@@ -29615,7 +29628,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="963" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="1" t="s">
         <v>2079</v>
       </c>
@@ -29635,7 +29648,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="964" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="1" t="s">
         <v>2082</v>
       </c>
@@ -29655,7 +29668,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="965" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="1" t="s">
         <v>2085</v>
       </c>
@@ -29675,7 +29688,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="966" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="1" t="s">
         <v>2088</v>
       </c>
@@ -29695,7 +29708,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="967" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="1" t="s">
         <v>2091</v>
       </c>
@@ -29715,7 +29728,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="968" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="1" t="s">
         <v>2094</v>
       </c>
@@ -29735,7 +29748,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="969" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="1" t="s">
         <v>2097</v>
       </c>
@@ -29755,7 +29768,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="970" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="1" t="s">
         <v>2100</v>
       </c>
@@ -29775,7 +29788,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="971" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="1" t="s">
         <v>2103</v>
       </c>
@@ -29795,7 +29808,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="972" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="1" t="s">
         <v>2106</v>
       </c>
@@ -29815,7 +29828,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="973" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="1" t="s">
         <v>2109</v>
       </c>
@@ -29835,7 +29848,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="974" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="1" t="s">
         <v>2112</v>
       </c>
@@ -29855,7 +29868,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="975" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="1" t="s">
         <v>2115</v>
       </c>
@@ -29875,7 +29888,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="976" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="1" t="s">
         <v>2118</v>
       </c>
@@ -29895,7 +29908,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="977" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="1" t="s">
         <v>2121</v>
       </c>
@@ -29915,7 +29928,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="978" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="1" t="s">
         <v>2124</v>
       </c>
@@ -29935,7 +29948,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="979" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="1" t="s">
         <v>2127</v>
       </c>
@@ -29955,7 +29968,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="980" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="1" t="s">
         <v>2130</v>
       </c>
@@ -29975,7 +29988,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="981" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="1" t="s">
         <v>2133</v>
       </c>
@@ -29995,7 +30008,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="982" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="1" t="s">
         <v>2136</v>
       </c>
@@ -30015,7 +30028,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="983" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="1" t="s">
         <v>2139</v>
       </c>
@@ -30035,7 +30048,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="984" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="1" t="s">
         <v>2142</v>
       </c>
@@ -30055,7 +30068,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="985" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="1" t="s">
         <v>2145</v>
       </c>
@@ -30075,7 +30088,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="986" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="1" t="s">
         <v>2148</v>
       </c>
@@ -30095,7 +30108,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="987" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="1" t="s">
         <v>2151</v>
       </c>
@@ -30115,7 +30128,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="988" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="1" t="s">
         <v>2154</v>
       </c>
@@ -30135,7 +30148,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="989" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="1" t="s">
         <v>2157</v>
       </c>
@@ -30155,7 +30168,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="990" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="1" t="s">
         <v>2160</v>
       </c>
@@ -30175,7 +30188,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="991" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="1" t="s">
         <v>2163</v>
       </c>
@@ -30195,7 +30208,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="992" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="1" t="s">
         <v>2166</v>
       </c>
@@ -30215,7 +30228,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="993" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="1" t="s">
         <v>2169</v>
       </c>
@@ -30235,7 +30248,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="994" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="1" t="s">
         <v>2172</v>
       </c>
@@ -30255,7 +30268,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="995" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="1" t="s">
         <v>2175</v>
       </c>
@@ -30275,7 +30288,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="996" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="1" t="s">
         <v>2178</v>
       </c>
@@ -30295,7 +30308,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="997" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="1" t="s">
         <v>2181</v>
       </c>
@@ -30315,7 +30328,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="998" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="1" t="s">
         <v>2184</v>
       </c>
@@ -30335,7 +30348,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="999" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="1" t="s">
         <v>2187</v>
       </c>
@@ -30355,7 +30368,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="1" t="s">
         <v>2190</v>
       </c>
@@ -30375,7 +30388,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="1" t="s">
         <v>2193</v>
       </c>
@@ -30395,7 +30408,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="1" t="s">
         <v>2196</v>
       </c>
@@ -30415,7 +30428,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1003" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1003" s="1" t="s">
         <v>2199</v>
       </c>
@@ -30428,14 +30441,14 @@
       <c r="D1003" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1003" s="1" t="s">
+      <c r="E1003" s="8" t="s">
         <v>2201</v>
       </c>
       <c r="F1003" s="7">
         <v>2019</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1004" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="1" t="s">
         <v>2202</v>
       </c>
@@ -30455,7 +30468,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1005" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1005" s="1" t="s">
         <v>2205</v>
       </c>
@@ -30475,7 +30488,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1006" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="1" t="s">
         <v>2208</v>
       </c>
@@ -30495,7 +30508,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1007" s="1" t="s">
         <v>2211</v>
       </c>
@@ -30515,7 +30528,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1008" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1008" s="1" t="s">
         <v>2214</v>
       </c>
@@ -30535,7 +30548,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1009" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1009" s="1" t="s">
         <v>2217</v>
       </c>
@@ -30555,7 +30568,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1010" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1010" s="1" t="s">
         <v>2220</v>
       </c>
@@ -30575,7 +30588,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1011" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1011" s="1" t="s">
         <v>2223</v>
       </c>
@@ -30595,7 +30608,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1012" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1012" s="1" t="s">
         <v>2226</v>
       </c>
@@ -30615,7 +30628,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1013" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1013" s="1" t="s">
         <v>2229</v>
       </c>
@@ -30635,7 +30648,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1014" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1014" s="1" t="s">
         <v>2232</v>
       </c>
@@ -30655,7 +30668,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1015" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1015" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1015" s="1" t="s">
         <v>2235</v>
       </c>
@@ -30675,7 +30688,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1016" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1016" s="1" t="s">
         <v>2238</v>
       </c>
@@ -30695,7 +30708,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1017" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1017" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1017" s="1" t="s">
         <v>2241</v>
       </c>
@@ -30715,7 +30728,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1018" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1018" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1018" s="1" t="s">
         <v>2244</v>
       </c>
@@ -30735,7 +30748,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1019" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1019" s="1" t="s">
         <v>2247</v>
       </c>
@@ -30755,7 +30768,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1020" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1020" s="1" t="s">
         <v>2250</v>
       </c>
@@ -30775,7 +30788,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1021" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1021" s="1" t="s">
         <v>2253</v>
       </c>
@@ -30795,7 +30808,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1022" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1022" s="1" t="s">
         <v>2256</v>
       </c>
@@ -30815,7 +30828,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1023" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1023" s="1" t="s">
         <v>2259</v>
       </c>
@@ -30835,7 +30848,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1024" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1024" s="1" t="s">
         <v>2262</v>
       </c>
@@ -30855,7 +30868,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1025" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1025" s="1" t="s">
         <v>2265</v>
       </c>
@@ -30875,7 +30888,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1026" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1026" s="1" t="s">
         <v>2268</v>
       </c>
@@ -30895,7 +30908,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1027" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1027" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1027" s="1" t="s">
         <v>2271</v>
       </c>
@@ -30915,7 +30928,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1028" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1028" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1028" s="1" t="s">
         <v>2274</v>
       </c>
@@ -30935,7 +30948,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1029" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1029" s="1" t="s">
         <v>2277</v>
       </c>
@@ -30955,7 +30968,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1030" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1030" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1030" s="1" t="s">
         <v>2280</v>
       </c>
@@ -30975,7 +30988,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1031" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1031" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1031" s="1" t="s">
         <v>2283</v>
       </c>
@@ -30995,7 +31008,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1032" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1032" s="1" t="s">
         <v>2286</v>
       </c>
@@ -31015,7 +31028,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1033" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1033" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1033" s="1" t="s">
         <v>2289</v>
       </c>
@@ -31035,7 +31048,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1034" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1034" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1034" s="1" t="s">
         <v>2292</v>
       </c>
@@ -31055,7 +31068,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1035" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1035" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1035" s="1" t="s">
         <v>2295</v>
       </c>
@@ -31075,7 +31088,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1036" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1036" s="1" t="s">
         <v>2298</v>
       </c>
@@ -31095,7 +31108,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1037" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1037" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1037" s="1" t="s">
         <v>2301</v>
       </c>
@@ -31115,7 +31128,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1038" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1038" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1038" s="1" t="s">
         <v>2304</v>
       </c>
@@ -31135,7 +31148,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1039" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1039" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1039" s="1" t="s">
         <v>2307</v>
       </c>
@@ -31155,7 +31168,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1040" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1040" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1040" s="1" t="s">
         <v>2310</v>
       </c>
@@ -31175,7 +31188,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1041" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1041" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1041" s="1" t="s">
         <v>2313</v>
       </c>
@@ -31195,7 +31208,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1042" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1042" s="1" t="s">
         <v>2316</v>
       </c>
@@ -31215,7 +31228,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1043" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1043" s="1" t="s">
         <v>2320</v>
       </c>
@@ -31235,7 +31248,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1044" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1044" s="1" t="s">
         <v>2323</v>
       </c>
@@ -31255,7 +31268,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1045" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1045" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1045" s="1" t="s">
         <v>2326</v>
       </c>
@@ -31275,7 +31288,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1046" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1046" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1046" s="1" t="s">
         <v>2329</v>
       </c>
@@ -31295,7 +31308,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1047" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1047" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1047" s="1" t="s">
         <v>2332</v>
       </c>
@@ -31315,7 +31328,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1048" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1048" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1048" s="1" t="s">
         <v>2335</v>
       </c>
@@ -31335,7 +31348,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1049" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1049" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1049" s="1" t="s">
         <v>2338</v>
       </c>
@@ -31355,7 +31368,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1050" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1050" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1050" s="1" t="s">
         <v>2341</v>
       </c>
@@ -31375,7 +31388,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1051" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1051" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1051" s="1" t="s">
         <v>2344</v>
       </c>
@@ -31395,7 +31408,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1052" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1052" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1052" s="1" t="s">
         <v>2347</v>
       </c>
@@ -31415,7 +31428,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1053" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1053" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1053" s="1" t="s">
         <v>2350</v>
       </c>
@@ -31435,7 +31448,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1054" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1054" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1054" s="1" t="s">
         <v>2353</v>
       </c>
@@ -31455,7 +31468,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1055" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1055" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1055" s="1" t="s">
         <v>2356</v>
       </c>
@@ -31475,7 +31488,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1056" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1056" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1056" s="1" t="s">
         <v>2359</v>
       </c>
@@ -31495,7 +31508,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1057" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1057" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1057" s="1" t="s">
         <v>2362</v>
       </c>
@@ -31515,7 +31528,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1058" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1058" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1058" s="1" t="s">
         <v>2365</v>
       </c>
@@ -31535,7 +31548,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1059" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1059" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1059" s="1" t="s">
         <v>2368</v>
       </c>
@@ -31555,7 +31568,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1060" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1060" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1060" s="1" t="s">
         <v>2371</v>
       </c>
@@ -31575,7 +31588,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1061" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1061" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1061" s="1" t="s">
         <v>2374</v>
       </c>
@@ -31595,7 +31608,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1062" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1062" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1062" s="1" t="s">
         <v>2377</v>
       </c>
@@ -31615,7 +31628,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1063" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1063" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1063" s="1" t="s">
         <v>2380</v>
       </c>
@@ -31635,7 +31648,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1064" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1064" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1064" s="1" t="s">
         <v>2383</v>
       </c>
@@ -31655,7 +31668,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1065" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1065" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1065" s="1" t="s">
         <v>2386</v>
       </c>
@@ -31675,7 +31688,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1066" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1066" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1066" s="1" t="s">
         <v>2389</v>
       </c>
@@ -31695,7 +31708,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1067" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1067" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1067" s="1" t="s">
         <v>2392</v>
       </c>
@@ -31715,7 +31728,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1068" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1068" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1068" s="1" t="s">
         <v>2395</v>
       </c>
@@ -31735,7 +31748,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1069" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1069" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1069" s="1" t="s">
         <v>2398</v>
       </c>
@@ -31755,7 +31768,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1070" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1070" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1070" s="1" t="s">
         <v>2401</v>
       </c>
@@ -31775,7 +31788,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1071" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1071" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1071" s="1" t="s">
         <v>2404</v>
       </c>
@@ -31795,7 +31808,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1072" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1072" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1072" s="1" t="s">
         <v>2407</v>
       </c>
@@ -31815,7 +31828,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1073" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1073" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1073" s="1" t="s">
         <v>2410</v>
       </c>
@@ -31835,7 +31848,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1074" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1074" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1074" s="1" t="s">
         <v>2413</v>
       </c>
@@ -31855,7 +31868,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1075" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1075" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1075" s="1" t="s">
         <v>2416</v>
       </c>
@@ -31875,7 +31888,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1076" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1076" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1076" s="1" t="s">
         <v>2419</v>
       </c>
@@ -31895,7 +31908,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1077" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1077" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1077" s="1" t="s">
         <v>2422</v>
       </c>
@@ -31915,7 +31928,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1078" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1078" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1078" s="1" t="s">
         <v>2425</v>
       </c>
@@ -31935,7 +31948,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1079" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1079" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1079" s="1" t="s">
         <v>2428</v>
       </c>
@@ -31955,7 +31968,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1080" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1080" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1080" s="1" t="s">
         <v>2431</v>
       </c>
@@ -31975,7 +31988,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1081" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1081" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1081" s="1" t="s">
         <v>2434</v>
       </c>
@@ -31995,7 +32008,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1082" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1082" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1082" s="1" t="s">
         <v>2437</v>
       </c>
@@ -32015,7 +32028,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1083" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1083" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1083" s="1" t="s">
         <v>2440</v>
       </c>
@@ -32035,7 +32048,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1084" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1084" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1084" s="1" t="s">
         <v>2443</v>
       </c>
@@ -32055,7 +32068,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1085" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1085" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1085" s="1" t="s">
         <v>2446</v>
       </c>
@@ -32075,7 +32088,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1086" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1086" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1086" s="1" t="s">
         <v>2449</v>
       </c>
@@ -32095,7 +32108,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1087" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1087" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1087" s="1" t="s">
         <v>2452</v>
       </c>
@@ -32115,7 +32128,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1088" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1088" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1088" s="1" t="s">
         <v>2455</v>
       </c>
@@ -32135,7 +32148,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1089" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1089" s="1" t="s">
         <v>2458</v>
       </c>
@@ -32155,7 +32168,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1090" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1090" s="1" t="s">
         <v>2461</v>
       </c>
@@ -32175,7 +32188,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1091" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1091" s="1" t="s">
         <v>2464</v>
       </c>
@@ -32195,7 +32208,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1092" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1092" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1092" s="1" t="s">
         <v>2467</v>
       </c>
@@ -32215,7 +32228,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1093" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1093" s="1" t="s">
         <v>2470</v>
       </c>
@@ -32235,7 +32248,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1094" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1094" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1094" s="1" t="s">
         <v>2473</v>
       </c>
@@ -32255,7 +32268,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1095" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1095" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1095" s="1" t="s">
         <v>2476</v>
       </c>
@@ -32275,7 +32288,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1096" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1096" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1096" s="1" t="s">
         <v>2479</v>
       </c>
@@ -32295,7 +32308,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1097" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1097" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1097" s="1" t="s">
         <v>2482</v>
       </c>
@@ -32321,6 +32334,11 @@
       <sortCondition ref="F1:F1097"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="E401" r:id="rId1" xr:uid="{2B87A972-1E0F-466E-8781-456A4DEE1895}"/>
+    <hyperlink ref="E862" r:id="rId2" xr:uid="{CE1179E0-326E-4357-AE50-5D7FFBC59DBE}"/>
+    <hyperlink ref="E1003" r:id="rId3" xr:uid="{2ED65E8E-BAC9-49FB-AD0D-60548A21995F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>